--- a/IP.xlsx
+++ b/IP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6517650-6134-457C-B554-688F8ADFB877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B9B48C-5F06-45A8-BAE2-F63291F2DD55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>192.168.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>192.168.1.2</t>
+  </si>
+  <si>
+    <t>192.168.1.3</t>
+  </si>
+  <si>
+    <t>192.168.1.4</t>
   </si>
 </sst>
 </file>
@@ -356,10 +362,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -377,6 +383,16 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/IP.xlsx
+++ b/IP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\testgit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B9B48C-5F06-45A8-BAE2-F63291F2DD55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B449CFD-824F-4445-B4A6-A45C11FC1D0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>192.168.1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>192.168.1.4</t>
+  </si>
+  <si>
+    <t>192.168.1.5</t>
   </si>
 </sst>
 </file>
@@ -362,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -393,6 +396,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
